--- a/projec/backend/EstimateRequestSystem/EstimateRequestSystem/Templates/MultiQuote.xlsx
+++ b/projec/backend/EstimateRequestSystem/EstimateRequestSystem/Templates/MultiQuote.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simjimin/Desktop/projec/backend/EstimateRequestSystem/EstimateRequestSystem/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minjun\Downloads\testtt\PWD\projec\backend\EstimateRequestSystem\EstimateRequestSystem\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978B9968-2F5A-384D-AE5B-09100541F223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D55165-8D9F-4746-BF74-D79EF624338F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="680" windowWidth="14160" windowHeight="16160" xr2:uid="{DD05FA15-E90A-9A42-905F-F1B9E68C78F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD05FA15-E90A-9A42-905F-F1B9E68C78F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="다수량견적서" sheetId="2" r:id="rId1"/>
+    <sheet name="다수량견적서" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">다수량견적서!$A$1:$O$44</definedName>
@@ -39,137 +39,125 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Smart Solution for Flow Control</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>:</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   Cancellation Charge (위약금)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   Effective Date (견적유효기간)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   Packing (포장)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   Painting (도장)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   Delivery Place (납품장소)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   Delivery (납기)  </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   Terms of Payment (지불방법)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   Attachment (첨부)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  ※ Other precautions</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>원</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>총 견적금액</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>※ VAT 별도</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> ■ NOTE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>총 가격</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Amount</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Unit Price</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Q'ty</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>SIZE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Item Information</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ITEM</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>20●●년 ●●월 ●●일</t>
   </si>
   <si>
     <t xml:space="preserve">   DATE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   REFERENCE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   PROJECT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   RECEIVER</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   CUSTOMER</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HEAD OFFICE &amp; FACTORY</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -177,11 +165,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -349,7 +345,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,18 +361,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,260 +550,262 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="18" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="10" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="쉼표 [0] 2" xfId="2" xr:uid="{58B78A33-FC3C-A346-9CAD-EC11C6A8F0E1}"/>
+    <cellStyle name="쉼표 [0] 3" xfId="4" xr:uid="{F8865B2D-812C-4BCF-B1BC-9EDEC749755D}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{2700CA58-C5B6-4D4D-9D12-1FFE459E65AF}"/>
+    <cellStyle name="표준 3" xfId="3" xr:uid="{D5415609-1FFB-4992-BB0C-3200074D4DC9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -838,18 +824,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>655696</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>154392</xdr:rowOff>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2403182" cy="430325"/>
+    <xdr:ext cx="2438400" cy="428625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="2" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC419FE5-3315-8C49-AF47-89F31BD2D27E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91025DC-264D-419B-9217-8C5858A3346F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,64 +843,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-        </a:blip>
-        <a:srcRect l="26220" t="-3078" b="-1"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2941696" y="154392"/>
-          <a:ext cx="2403182" cy="430325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>93456</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114549</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="980067" cy="509576"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89036B0F-AE8B-2E47-AEA7-8076BFE54A04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect r="73929" b="2707"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="93456" y="114549"/>
-          <a:ext cx="980067" cy="509576"/>
+          <a:off x="784412" y="134470"/>
+          <a:ext cx="2438400" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1242,630 +1180,595 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F580A6-7198-374A-AED0-53EAABC6EE3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D519C5A-E53E-4D5B-8361-77E03ED26FC5}">
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="1" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="1.42578125" style="1" customWidth="1"/>
-    <col min="7" max="10" width="3.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.5703125" style="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="1.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.44140625" style="1" customWidth="1"/>
+    <col min="7" max="10" width="3.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10.109375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="38" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A1" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="39"/>
-    </row>
-    <row r="2" spans="1:16" s="38" customFormat="1" ht="4.5" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="39"/>
-    </row>
-    <row r="3" spans="1:16" s="38" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A3" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="68">
+    <row r="1" spans="1:16" s="37" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A1" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="4.5" customHeight="1">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="38"/>
+    </row>
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A3" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="56">
         <v>54</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="39"/>
-    </row>
-    <row r="4" spans="1:16" s="38" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A4" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="68">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="38"/>
+    </row>
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="56">
         <v>55</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="39"/>
-    </row>
-    <row r="5" spans="1:16" s="38" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A5" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="78">
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="38"/>
+    </row>
+    <row r="5" spans="1:16" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="76">
         <v>1</v>
       </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="39"/>
-    </row>
-    <row r="6" spans="1:16" s="38" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A6" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="68">
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="38"/>
+    </row>
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="56">
         <v>53</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="39"/>
-    </row>
-    <row r="7" spans="1:16" s="38" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A7" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="39"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="38"/>
+    </row>
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:16" s="17" customFormat="1" ht="6" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="50"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="49"/>
       <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:16" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="65"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="64"/>
       <c r="P9" s="18"/>
     </row>
     <row r="10" spans="1:16" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="65"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="64"/>
       <c r="P10" s="18"/>
     </row>
     <row r="11" spans="1:16" s="17" customFormat="1" ht="6" customHeight="1">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="75"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="73"/>
       <c r="P11" s="18"/>
     </row>
     <row r="12" spans="1:16" s="17" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A12" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="37" t="s">
+      <c r="A12" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="35" t="s">
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="36" t="s">
         <v>20</v>
       </c>
+      <c r="M12" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62">
+      <c r="A13" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61">
         <v>155</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="34">
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="33">
         <v>156</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="33">
         <v>4</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="33">
         <v>158</v>
       </c>
-      <c r="O13" s="33" t="s">
+      <c r="O13" s="32" t="s">
         <v>15</v>
       </c>
       <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:16" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62">
-        <v>155</v>
-      </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="34">
-        <v>156</v>
-      </c>
-      <c r="M14" s="34">
-        <v>4</v>
-      </c>
-      <c r="N14" s="34">
-        <v>158</v>
-      </c>
-      <c r="O14" s="33" t="s">
-        <v>15</v>
-      </c>
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="32"/>
       <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62">
-        <v>155</v>
-      </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="34">
-        <v>156</v>
-      </c>
-      <c r="M15" s="34">
-        <v>4</v>
-      </c>
-      <c r="N15" s="34">
-        <v>158</v>
-      </c>
-      <c r="O15" s="33" t="s">
-        <v>15</v>
-      </c>
+      <c r="A15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="32"/>
       <c r="P15" s="18"/>
     </row>
     <row r="16" spans="1:16" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62">
-        <v>155</v>
-      </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="34">
-        <v>156</v>
-      </c>
-      <c r="M16" s="34">
-        <v>4</v>
-      </c>
-      <c r="N16" s="34">
-        <v>158</v>
-      </c>
-      <c r="O16" s="33" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="32"/>
       <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:16" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="32"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="31"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="30"/>
       <c r="P17" s="18"/>
     </row>
     <row r="18" spans="1:16" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="32"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="31"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="30"/>
       <c r="P18" s="18"/>
     </row>
     <row r="19" spans="1:16" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="32"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="31"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="30"/>
       <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:16" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="32"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="31"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="30"/>
       <c r="P20" s="18"/>
     </row>
     <row r="21" spans="1:16" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="32"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="30"/>
       <c r="P21" s="18"/>
     </row>
     <row r="22" spans="1:16" s="17" customFormat="1" ht="30" customHeight="1">
-      <c r="A22" s="59"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="28"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="27"/>
       <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:16" s="17" customFormat="1" ht="4.5" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="47"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="46"/>
       <c r="P23" s="18"/>
     </row>
     <row r="24" spans="1:16" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="58"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="57"/>
       <c r="P24" s="18"/>
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" ht="3" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="47"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
       <c r="P25" s="18"/>
     </row>
     <row r="26" spans="1:16" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="55"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="54"/>
       <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:16" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="55"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="54"/>
       <c r="P27" s="18"/>
     </row>
     <row r="28" spans="1:16" s="17" customFormat="1" ht="12" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="55"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="54"/>
       <c r="P28" s="18"/>
     </row>
     <row r="29" spans="1:16" s="17" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="20"/>
       <c r="M29" s="21" t="s">
         <v>12</v>
       </c>
@@ -1879,38 +1782,38 @@
       <c r="P29" s="18"/>
     </row>
     <row r="30" spans="1:16" s="5" customFormat="1" ht="9" customHeight="1">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="43"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="42"/>
     </row>
     <row r="31" spans="1:16" s="16" customFormat="1" ht="3.75" customHeight="1">
-      <c r="A31" s="48"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="50"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="49"/>
     </row>
     <row r="32" spans="1:16" s="11" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="15" t="s">
@@ -2117,57 +2020,57 @@
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="1:15" s="3" customFormat="1" ht="3.75" customHeight="1">
-      <c r="A42" s="48"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="50"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="49"/>
     </row>
     <row r="43" spans="1:15" s="3" customFormat="1" ht="6.75" customHeight="1">
-      <c r="A43" s="45"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="47"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="46"/>
     </row>
     <row r="44" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="53"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -2223,7 +2126,7 @@
     <mergeCell ref="A31:O31"/>
     <mergeCell ref="A24:O24"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
